--- a/doc/uw_slate_umg_retainerbox.xlsx
+++ b/doc/uw_slate_umg_retainerbox.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20BA95-01FB-4F7C-8407-7995B4D5601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313E97F-52AB-48F6-953B-15B516742373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="原理" sheetId="2" r:id="rId2"/>
-    <sheet name="配置" sheetId="3" r:id="rId3"/>
-    <sheet name="注意事项" sheetId="4" r:id="rId4"/>
+    <sheet name="原理2" sheetId="5" r:id="rId3"/>
+    <sheet name="配置" sheetId="3" r:id="rId4"/>
+    <sheet name="注意事项" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,16 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用一张UTextureRenderTarget2D，缓存渲染的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SRetainerWidget</t>
   </si>
   <si>
@@ -56,13 +53,175 @@
   <si>
     <t>每次计算，会计算是否需要重新绘制</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一张UTextureRenderTarget2D(根据子节点计算对应RenderTarget大小)，缓存渲染的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bEnableRetainedRendering &amp;&amp; IsAnythingVisibleToRender())</t>
+  </si>
+  <si>
+    <t>如果启动了RetainedRender，且必须有子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则走普通的Paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPaintRetainedContentResult PaintResult = MutableThis-&gt;PaintRetainedContentImpl(Context, AllottedGeometry);</t>
+  </si>
+  <si>
+    <t>是否可以绘制到RT上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (PaintResult == EPaintRetainedContentResult::InvalidSize)</t>
+  </si>
+  <si>
+    <t>return SCompoundWidget::OnPaint(Args, AllottedGeometry, MyCullingRect, OutDrawElements, LayerId, InWidgetStyle, bParentEnabled);</t>
+  </si>
+  <si>
+    <t>重新绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>将绘制的信息存入贴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check(RenderTarget);</t>
+  </si>
+  <si>
+    <t>if (RenderTarget-&gt;GetSurfaceWidth() &gt;= 1 &amp;&amp; RenderTarget-&gt;GetSurfaceHeight() &gt;= 1)</t>
+  </si>
+  <si>
+    <t>const FLinearColor ComputedColorAndOpacity(Context.WidgetStyle.GetColorAndOpacityTint() * ColorAndOpacity.Get() * SurfaceBrush.GetTint(Context.WidgetStyle));</t>
+  </si>
+  <si>
+    <t>// Retainer widget uses pre-multiplied alpha, so pre-multiply the color by the alpha to respect opacity.</t>
+  </si>
+  <si>
+    <t>const FLinearColor PremultipliedColorAndOpacity(ComputedColorAndOpacity * ComputedColorAndOpacity.A);</t>
+  </si>
+  <si>
+    <t>FWidgetRenderer* WidgetRenderer = RenderingResources-&gt;WidgetRenderer;</t>
+  </si>
+  <si>
+    <t>UMaterialInstanceDynamic* DynamicEffect = RenderingResources-&gt;DynamicEffect;</t>
+  </si>
+  <si>
+    <t>const bool bDynamicMaterialInUse = (DynamicEffect != nullptr);</t>
+  </si>
+  <si>
+    <t>if (bDynamicMaterialInUse)</t>
+  </si>
+  <si>
+    <t>DynamicEffect-&gt;SetTextureParameterValue(DynamicEffectTextureParameter, RenderTarget);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FSlateDrawElement::MakeBox(</t>
+  </si>
+  <si>
+    <t>*Context.WindowElementList,</t>
+  </si>
+  <si>
+    <t>Context.IncomingLayerId,</t>
+  </si>
+  <si>
+    <t>AllottedGeometry.ToPaintGeometry(),</t>
+  </si>
+  <si>
+    <t>&amp;SurfaceBrush,</t>
+  </si>
+  <si>
+    <t>// We always write out the content in gamma space, so when we render the final version we need to</t>
+  </si>
+  <si>
+    <t>// render without gamma correction enabled.</t>
+  </si>
+  <si>
+    <t>ESlateDrawEffect::PreMultipliedAlpha | ESlateDrawEffect::NoGamma,</t>
+  </si>
+  <si>
+    <t>FLinearColor(PremultipliedColorAndOpacity.R, PremultipliedColorAndOpacity.G, PremultipliedColorAndOpacity.B, PremultipliedColorAndOpacity.A)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>SRetainerWidget::EPaintRetainedContentResult SRetainerWidget::PaintRetainedContentImpl(const FSlateInvalidationContext&amp; Context, const FGeometry&amp; AllottedGeometry)</t>
+  </si>
+  <si>
+    <t>是否需要重新绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管是不是重新绘制，外层都需要赋值到RT上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// If doing some phase based invalidation, just redraw everything again</t>
+  </si>
+  <si>
+    <t>RequestRender();</t>
+  </si>
+  <si>
+    <t>间隔时间判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！需要重绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderOnInvalidation</t>
+  </si>
+  <si>
+    <t>属性变化了，也需要重新绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else if (RenderSize != PreviousRenderSize)</t>
+  </si>
+  <si>
+    <t>大小变化了，也需要重新绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (LastTickedFrame != GFrameCounter &amp;&amp; (GFrameCounter % PhaseCount) == Phase)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (RenderOnPhase)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenderOnPhase</t>
+  </si>
+  <si>
+    <t>PhaseCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +241,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,9 +272,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,23 +556,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C5"/>
+  <dimension ref="B4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -415,42 +586,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBD57D5-5428-4B68-9970-B438E27CDEDD}">
-  <dimension ref="B4:C11"/>
+  <dimension ref="B4:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>6</v>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -460,23 +811,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B0BFA-2343-4947-9A21-75AD93EE840B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EE51F-9693-4E8E-BD4E-E14688553275}">
+  <dimension ref="B4:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B0BFA-2343-4947-9A21-75AD93EE840B}">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AD3F6A-0B5E-42C8-BA88-74F9187EB79A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/doc/uw_slate_umg_retainerbox.xlsx
+++ b/doc/uw_slate_umg_retainerbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4313E97F-52AB-48F6-953B-15B516742373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4C128-4373-491A-ACFE-16F6D78C6027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="原理2" sheetId="5" r:id="rId3"/>
     <sheet name="配置" sheetId="3" r:id="rId4"/>
     <sheet name="注意事项" sheetId="4" r:id="rId5"/>
+    <sheet name="关于真机上的延迟渲染RT" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="178">
   <si>
     <t>原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,13 +216,407 @@
   </si>
   <si>
     <t>PhaseCount</t>
+  </si>
+  <si>
+    <t>然后每次都是自身的SurfaceBrush绑定RT，每次发起绘制SurfaceBrush的操作，就实现了渲染RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutable FSlateBrush SurfaceBrush;</t>
+  </si>
+  <si>
+    <t>渲染的BRUSH，内部渲染的Resource就是外部的RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含了渲染的RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void SRetainerWidget::Construct(const FArguments&amp; InArgs)</t>
+  </si>
+  <si>
+    <t>UTextureRenderTarget2D* RenderTarget = NewObject&lt;UTextureRenderTarget2D&gt;();</t>
+  </si>
+  <si>
+    <t>RenderTarget-&gt;ClearColor = FLinearColor::Transparent;</t>
+  </si>
+  <si>
+    <t>RenderTarget-&gt;RenderTargetFormat = RTF_RGBA8_SRGB;</t>
+  </si>
+  <si>
+    <t>RenderingResources-&gt;RenderTarget = RenderTarget;</t>
+  </si>
+  <si>
+    <t>SurfaceBrush.SetResourceObject(RenderTarget);</t>
+  </si>
+  <si>
+    <t>设置渲染的Brush资源就是RT！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这个里面就是发起渲染，其传入的SuerfaceBrush的Resource就是准备的那张RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果发生重绘：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先调整RT的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WidgetRenderer-&gt;DrawInvalidationRoot(VirtualWindow, RenderTarget, *this, Context, GDeferRetainedRenderingRenderThread != 0);</t>
+  </si>
+  <si>
+    <t>发起渲染RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！注意，在IOS和Android上会延迟渲染RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FWidgetRenderer::DrawInvalidationRoot(TSharedRef&lt;SVirtualWindow&gt;&amp; VirtualWindow, UTextureRenderTarget2D* RenderTarget, FSlateInvalidationRoot&amp; Root, const FSlateInvalidationContext&amp; Context, bool bDeferRenderTargetUpdate)</t>
+  </si>
+  <si>
+    <t>内部重新创建一个自己的Context，然后发起渲染（不是用传入的Content，不然就乱了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Need to set a new window element list so make a copy</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationContext ContextCopy = Context;</t>
+  </si>
+  <si>
+    <t>ContextCopy.WindowElementList = &amp;WindowElementList;</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult Result = Root.PaintInvalidationRoot(ContextCopy);</t>
+  </si>
+  <si>
+    <t>遍历所有子节点，生成自己的DrawElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRenderThreadUpdateContext RenderThreadUpdateContext =</t>
+  </si>
+  <si>
+    <t>&amp;DrawBuffer,</t>
+  </si>
+  <si>
+    <t>static_cast&lt;float&gt;(FApp::GetCurrentTime() - GStartTime),</t>
+  </si>
+  <si>
+    <t>static_cast&lt;float&gt;(FApp::GetDeltaTime()),</t>
+  </si>
+  <si>
+    <t>static_cast&lt;float&gt;(FPlatformTime::Seconds() - GStartTime),</t>
+  </si>
+  <si>
+    <t>static_cast&lt;FRenderTarget*&gt;(RenderTarget-&gt;GameThread_GetRenderTargetResource()),</t>
+  </si>
+  <si>
+    <t>Renderer.Get(),</t>
+  </si>
+  <si>
+    <t>bClearTarget</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>bRepaintedWidgets = Result.bRepaintedWidgets;</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().GetRenderer()-&gt;AddWidgetRendererUpdate(RenderThreadUpdateContext, bDeferRenderTargetUpdate);</t>
+  </si>
+  <si>
+    <t>增加到延迟渲染队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bDeferredRenderTargetUpdate)</t>
+  </si>
+  <si>
+    <t>DeferredUpdateContexts.Add(Context);</t>
+  </si>
+  <si>
+    <t>// Enqueue a command to unlock the draw buffer after all windows have been drawn</t>
+  </si>
+  <si>
+    <t>FRenderThreadUpdateContext InContext = Context;</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(DrawWidgetRendererImmediate)(</t>
+  </si>
+  <si>
+    <t>[InContext](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>InContext.Renderer-&gt;DrawWindowToTarget_RenderThread(RHICmdList, InContext);</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>！！！真机上仅仅加入队列，延迟渲染；否则直接发起渲染COMMAND给渲染线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！内部实现渲染到RT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>延迟渲染调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Tick(Advance) Time for the application and then tick and paint slate application widgets.</t>
+  </si>
+  <si>
+    <t>// We split separate this action from the one above to permit running network replication concurrent with slate widget ticking and painting.</t>
+  </si>
+  <si>
+    <t>if (FSlateApplication::IsInitialized() &amp;&amp; !bIdleMode)</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::TimeAndWidgets);</t>
+  </si>
+  <si>
+    <t>调度Slate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::Tick(ESlateTickType TickType)</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::PlatformAndInput))</t>
+  </si>
+  <si>
+    <t>TickPlatform(DeltaTime);</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::Time))</t>
+  </si>
+  <si>
+    <t>TickTime();</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(TickType, ESlateTickType::Widgets))</t>
+  </si>
+  <si>
+    <t>TickAndDrawWidgets(DeltaTime);</t>
+  </si>
+  <si>
+    <t>！！！各种TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！Draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::TickAndDrawWidgets(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>// Draw all windows</t>
+  </si>
+  <si>
+    <t>DrawWindows();</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawWindows()</t>
+  </si>
+  <si>
+    <t>SCOPED_NAMED_EVENT_TEXT("Slate::DrawWindows", FColor::Magenta);</t>
+  </si>
+  <si>
+    <t>PrivateDrawWindows();</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::PrivateDrawWindows( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
+  </si>
+  <si>
+    <t>调用DrawWindowAndChildren，遍历渲染所有Widget，调度TICK，调度Paint和OnPaint，生成DrawElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Renderer-&gt;DrawWindows( DrawWindowArgs.OutDrawBuffer );</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>DrawWindows_Private(WindowDrawBuffer);</t>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>if (DeferredUpdateContexts.Num() &gt; 0)</t>
+  </si>
+  <si>
+    <t>// Intentionally copy the contexts to avoid contention with the game thread</t>
+  </si>
+  <si>
+    <t>[Contexts = DeferredUpdateContexts](FRHICommandListImmediate&amp; RHICmdList) mutable</t>
+  </si>
+  <si>
+    <t>for (const FRenderThreadUpdateContext&amp; Context : Contexts)</t>
+  </si>
+  <si>
+    <t>Context.Renderer-&gt;DrawWindowToTarget_RenderThread(RHICmdList, Context);</t>
+  </si>
+  <si>
+    <t>DeferredUpdateContexts.Empty();</t>
+  </si>
+  <si>
+    <t>延迟渲染的调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度所有的DrawElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为何将RetainBox挂在InvalidateBox下无效，Retain Box还是会每帧Onpaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshRenderingMode();</t>
+  </si>
+  <si>
+    <t>void SRetainerWidget::RefreshRenderingMode()</t>
+  </si>
+  <si>
+    <t>const bool bShouldBeRenderingOffscreen = ShouldBeRenderingOffscreen();</t>
+  </si>
+  <si>
+    <t>if ( bEnableRetainedRendering != bShouldBeRenderingOffscreen )</t>
+  </si>
+  <si>
+    <t>bEnableRetainedRendering = bShouldBeRenderingOffscreen;</t>
+  </si>
+  <si>
+    <t>InvalidateRootChildOrder();</t>
+  </si>
+  <si>
+    <t>！！！设置了bEnableRetainedRendering=TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bool Advanced_IsInvalidationRoot() const { return bEnableRetainedRendering; }</t>
+  </si>
+  <si>
+    <t>virtual const FSlateInvalidationRoot* Advanced_AsInvalidationRoot() const override { return bEnableRetainedRendering ? this : nullptr; }</t>
+  </si>
+  <si>
+    <t>void SWidget::UpdateWidgetProxy(int32 NewLayerId, FSlateCachedElementsHandle&amp; CacheHandle)</t>
+  </si>
+  <si>
+    <t>#if WITH_SLATE_DEBUGGING</t>
+  </si>
+  <si>
+    <t>check(!CacheHandle.IsValid() || CacheHandle.IsOwnedByWidget(this));</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>// Account for the case when the widget gets a new handle for some reason.  This should really never happen</t>
+  </si>
+  <si>
+    <t>if (PersistentState.CachedElementHandle.IsValid() &amp;&amp; PersistentState.CachedElementHandle != CacheHandle)</t>
+  </si>
+  <si>
+    <t>ensureMsgf(!CacheHandle.IsValid(), TEXT("Widget was assigned a new cache handle.  This is not expected to happen."));</t>
+  </si>
+  <si>
+    <t>PersistentState.CachedElementHandle.RemoveFromCache();</t>
+  </si>
+  <si>
+    <t>PersistentState.CachedElementHandle = CacheHandle;</t>
+  </si>
+  <si>
+    <t>if (FastPathProxyHandle.IsValid(this))</t>
+  </si>
+  <si>
+    <t>FWidgetProxy&amp; MyProxy = FastPathProxyHandle.GetProxy();</t>
+  </si>
+  <si>
+    <t>MyProxy.Visibility = GetVisibility();</t>
+  </si>
+  <si>
+    <t>PersistentState.OutgoingLayerId = NewLayerId;</t>
+  </si>
+  <si>
+    <t>if ((IsVolatile() &amp;&amp; !IsVolatileIndirectly()) || (Advanced_IsInvalidationRoot() &amp;&amp; !Advanced_IsWindow()))</t>
+  </si>
+  <si>
+    <t>RemoveUpdateFlags(EWidgetUpdateFlags::NeedsVolatilePaint);</t>
+  </si>
+  <si>
+    <t>FastPathProxyHandle.MarkWidgetUpdatedThisFrame();</t>
+  </si>
+  <si>
+    <t>！！！设置了需要临时的Paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled) const</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;UpdateWidgetProxy(NewLayerId, NewCacheHandle);</t>
+  </si>
+  <si>
+    <t>每次Paint的调度时，都设置了自己需要Paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUpdateFlags(EWidgetUpdateFlags::NeedsVolatilePaint);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FWidgetProxy::Update(const FPaintArgs&amp; PaintArgs, FSlateWindowElementList&amp; OutDrawElements)</t>
+  </si>
+  <si>
+    <t>if (EnumHasAnyFlags(UpdateFlags, EWidgetUpdateFlags::NeedsRepaint|EWidgetUpdateFlags::NeedsVolatilePaint))</t>
+  </si>
+  <si>
+    <t>check(CurrentWidget-&gt;IsFastPathVisible());</t>
+  </si>
+  <si>
+    <t>OutgoingLayerId = Repaint(PaintArgs, OutDrawElements);</t>
+  </si>
+  <si>
+    <t>int32 FWidgetProxy::Repaint(const FPaintArgs&amp; PaintArgs, FSlateWindowElementList&amp; OutDrawElements) const</t>
+  </si>
+  <si>
+    <t>const int32 NewLayerId = WidgetPtr-&gt;Paint(UpdatedArgs, MyState.AllottedGeometry, MyState.CullingBounds, OutDrawElements, MyState.LayerId, MyState.WidgetStyle, MyState.bParentEnabled);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +646,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,10 +685,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:C6"/>
+  <dimension ref="B4:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +990,67 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBD57D5-5428-4B68-9970-B438E27CDEDD}">
-  <dimension ref="B4:H53"/>
+  <dimension ref="B4:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,67 +1189,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:18" x14ac:dyDescent="0.2">
       <c r="G43" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:18" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
         <v>36</v>
       </c>
@@ -812,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EE51F-9693-4E8E-BD4E-E14688553275}">
-  <dimension ref="B4:N24"/>
+  <dimension ref="B4:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -880,29 +1358,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -915,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B0BFA-2343-4947-9A21-75AD93EE840B}">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -945,14 +1454,788 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AD3F6A-0B5E-42C8-BA88-74F9187EB79A}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:P69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>171</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B35FB6-D88E-4B4D-AD65-DEB165F41B3D}">
+  <dimension ref="B2:Q102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>110</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
